--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.517590780161568</v>
+        <v>9.698527390890877</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3190883008315608</v>
+        <v>0.3253453439873472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.161522782940345</v>
+        <v>0.1596835923828926</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.60608856953805</v>
+        <v>9.912182645915873</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3221516662191792</v>
+        <v>0.3327028879891852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1605430045053734</v>
+        <v>0.1581577231275952</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.563220284043359</v>
+        <v>9.821044991823367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3206683841499112</v>
+        <v>0.3295686937280222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1609930668110804</v>
+        <v>0.1587472617327489</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.453753966810764</v>
+        <v>9.54534824957098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3168745937563329</v>
+        <v>0.3200496456402088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1623309018167085</v>
+        <v>0.1611936127849289</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.04169677944031</v>
+        <v>12.28024305618495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.418806232143231</v>
+        <v>0.4271100209593172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1803765594717203</v>
+        <v>0.1796331437881918</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.15952103052203</v>
+        <v>12.55317694857779</v>
       </c>
       <c r="D7" t="n">
-        <v>0.422913088800028</v>
+        <v>0.4365603308861303</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1799628334162753</v>
+        <v>0.1791542078005951</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12.10247450571393</v>
+        <v>12.43979457799448</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4209259572429488</v>
+        <v>0.4326409412529131</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1801483956084045</v>
+        <v>0.1793196632374179</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11.95607749099494</v>
+        <v>12.07876785431607</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4158149054330407</v>
+        <v>0.4200994820682087</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1807424961675408</v>
+        <v>0.1802335962210437</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.849977894970148</v>
+        <v>8.100715253554046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2743826038437471</v>
+        <v>0.2831327089946514</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1040236006045056</v>
+        <v>0.1041444377028976</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.974815074103009</v>
+        <v>8.375917617720326</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2787456683213934</v>
+        <v>0.2926787758055336</v>
       </c>
       <c r="E11" t="n">
-        <v>0.104030532253011</v>
+        <v>0.1046923480756578</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.914616807775303</v>
+        <v>8.261811408082771</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276643384710636</v>
+        <v>0.2887277311619071</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1040128067206244</v>
+        <v>0.1044170800674671</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.763908419515844</v>
+        <v>7.889014718364325</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2713664057208042</v>
+        <v>0.2757483566898146</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1040978583591547</v>
+        <v>0.1040130677184557</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.04478987535107</v>
+        <v>10.25281654466324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3428720104061189</v>
+        <v>0.3500933460374089</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1609316845606798</v>
+        <v>0.1596606361187998</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.14719063826355</v>
+        <v>10.49291218110247</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3464310017787767</v>
+        <v>0.3583865257555112</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1602430333043888</v>
+        <v>0.1586962451750652</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.09763411733011</v>
+        <v>10.39187037971037</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3447096014916022</v>
+        <v>0.3549018820588601</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1605564478996008</v>
+        <v>0.1590560125541513</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.971290822873405</v>
+        <v>10.0769262051287</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3403121394533016</v>
+        <v>0.3439897449210753</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1615157287547447</v>
+        <v>0.1606977417397006</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.698527390890877</v>
+        <v>9.327394158076046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3253453439873472</v>
+        <v>0.3124832692459452</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1596835923828926</v>
+        <v>0.1642402156231264</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.912182645915873</v>
+        <v>9.337723986947315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3327028879891852</v>
+        <v>0.3128426302193096</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1581577231275952</v>
+        <v>0.1640631349971821</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.821044991823367</v>
+        <v>9.327331942628012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3295686937280222</v>
+        <v>0.3124811044208045</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1587472617327489</v>
+        <v>0.1642412871166579</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.54534824957098</v>
+        <v>9.310809595796444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3200496456402088</v>
+        <v>0.3119064969437668</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1611936127849289</v>
+        <v>0.1645437223984187</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.28024305618495</v>
+        <v>11.7822753791486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4271100209593172</v>
+        <v>0.4097238203266051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1796331437881918</v>
+        <v>0.1816771181598834</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.55317694857779</v>
+        <v>11.79673121053622</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4365603308861303</v>
+        <v>0.4102313715776409</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1791542078005951</v>
+        <v>0.1815868583591053</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12.43979457799448</v>
+        <v>11.7821883137316</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4326409412529131</v>
+        <v>0.4097207627889483</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1793196632374179</v>
+        <v>0.1816776663236717</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.07876785431607</v>
+        <v>11.75780329686842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4200994820682087</v>
+        <v>0.4088641204993532</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1802335962210437</v>
+        <v>0.1818333344443128</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.100715253554046</v>
+        <v>7.608351089721062</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2831327089946514</v>
+        <v>0.2658970737768934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1041444377028976</v>
+        <v>0.1044986483044353</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.375917617720326</v>
+        <v>7.620845482327359</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2926787758055336</v>
+        <v>0.2663373409533033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1046923480756578</v>
+        <v>0.1044500369363998</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.261811408082771</v>
+        <v>7.608275838758974</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2887277311619071</v>
+        <v>0.2658944215649873</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1044170800674671</v>
+        <v>0.1044989488454377</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.889014718364325</v>
+        <v>7.587200243955854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2757483566898146</v>
+        <v>0.2651513409770392</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1040130677184557</v>
+        <v>0.1045867808226556</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.25281654466324</v>
+        <v>9.826570447761842</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3500933460374089</v>
+        <v>0.3352585374483657</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1596606361187998</v>
+        <v>0.1629408868847221</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.49291218110247</v>
+        <v>9.838444764846482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3583865257555112</v>
+        <v>0.3356738121449943</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1586962451750652</v>
+        <v>0.1628064077352953</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.39187037971037</v>
+        <v>9.82649893037639</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3549018820588601</v>
+        <v>0.3352560357935667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1590560125541513</v>
+        <v>0.1629417018922336</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.0769262051287</v>
+        <v>9.806973547002778</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3439897449210753</v>
+        <v>0.3345729904751849</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1606977417397006</v>
+        <v>0.1631723483080122</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.327394158076046</v>
+        <v>9.195693467261377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3124832692459452</v>
+        <v>0.308397069420815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1642402156231264</v>
+        <v>0.1808813773970718</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.337723986947315</v>
+        <v>9.192860524550481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3128426302193096</v>
+        <v>0.3082900465747652</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1640631349971821</v>
+        <v>0.1807777598436998</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.327331942628012</v>
+        <v>9.190346368419542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3124811044208045</v>
+        <v>0.308194992399727</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1642412871166579</v>
+        <v>0.1806828401025182</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.310809595796444</v>
+        <v>9.195895423871105</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3119064969437668</v>
+        <v>0.3084046933702237</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1645437223984187</v>
+        <v>0.1808885595074087</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.7822753791486</v>
+        <v>10.95295493121561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4097238203266051</v>
+        <v>0.3802900597979926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1816771181598834</v>
+        <v>0.1919277262447047</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11.79673121053622</v>
+        <v>10.95595545397064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4102313715776409</v>
+        <v>0.3803974695353194</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1815868583591053</v>
+        <v>0.1918568928406367</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.7821883137316</v>
+        <v>10.95870862203568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4097207627889483</v>
+        <v>0.3804960129914259</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1816776663236717</v>
+        <v>0.1917920594618149</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11.75780329686842</v>
+        <v>10.95274714384397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4088641204993532</v>
+        <v>0.3802826211383246</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1818333344443128</v>
+        <v>0.1919326382461352</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.608351089721062</v>
+        <v>7.318261184146767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2658970737768934</v>
+        <v>0.2557171614341486</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1044986483044353</v>
+        <v>0.1143678796838865</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.620845482327359</v>
+        <v>7.317689668738433</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2663373409533033</v>
+        <v>0.255694885659062</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1044500369363998</v>
+        <v>0.1142874281248339</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.608275838758974</v>
+        <v>7.317165125809078</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2658944215649873</v>
+        <v>0.255674448667788</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1044989488454377</v>
+        <v>0.1142138569813668</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.587200243955854</v>
+        <v>7.318300755851408</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2651513409770392</v>
+        <v>0.2557187041426017</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1045867808226556</v>
+        <v>0.1143734614200514</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.826570447761842</v>
+        <v>9.462709109404042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3352585374483657</v>
+        <v>0.3226896432369725</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1629408868847221</v>
+        <v>0.1766821746848415</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.838444764846482</v>
+        <v>9.461948285288994</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3356738121449943</v>
+        <v>0.3226590155135246</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1628064077352953</v>
+        <v>0.1765924065763057</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.82649893037639</v>
+        <v>9.461297840658524</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3352560357935667</v>
+        <v>0.3226326690459624</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1629417018922336</v>
+        <v>0.1765102047411505</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.806973547002778</v>
+        <v>9.462765025498872</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3345729904751849</v>
+        <v>0.3226918829793908</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1631723483080122</v>
+        <v>0.1766883981441371</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.195693467261377</v>
+        <v>10.56006704384687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.308397069420815</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1808813773970718</v>
+        <v>13.39731576690363</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -493,13 +495,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.192860524550481</v>
+        <v>10.55994613426183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3082900465747652</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1807777598436998</v>
+        <v>13.39699440623981</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -514,13 +518,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.190346368419542</v>
+        <v>10.56014039406742</v>
       </c>
       <c r="D4" t="n">
-        <v>0.308194992399727</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1806828401025182</v>
+        <v>13.39751118506531</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -535,13 +541,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.195895423871105</v>
+        <v>10.55990895074597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3084046933702237</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1808885595074087</v>
+        <v>13.39689576795776</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -556,13 +564,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.95295493121561</v>
+        <v>56.9923809631351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3802900597979926</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1919277262447047</v>
+        <v>54.97155915957649</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -577,13 +587,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.95595545397064</v>
+        <v>57.00840450450648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3803974695353194</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1918568928406367</v>
+        <v>54.98643106824083</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -598,13 +610,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.95870862203568</v>
+        <v>56.98263887960336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3804960129914259</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1917920594618149</v>
+        <v>54.96251561013514</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -619,13 +633,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.95274714384397</v>
+        <v>57.01332348826426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3802826211383246</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1919326382461352</v>
+        <v>54.99099584447677</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -640,13 +656,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.318261184146767</v>
+        <v>7.017840517128329</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2557171614341486</v>
+        <v>9.552879209036151</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1143678796838865</v>
+        <v>0.08421861550363997</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +677,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.317689668738433</v>
+        <v>7.024367678827875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255694885659062</v>
+        <v>9.561546201223651</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1142874281248339</v>
+        <v>0.08426624993498895</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +698,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.317165125809078</v>
+        <v>7.013973915950065</v>
       </c>
       <c r="D12" t="n">
-        <v>0.255674448667788</v>
+        <v>9.547743618391078</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1142138569813668</v>
+        <v>0.08419001140559049</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +719,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.318300755851408</v>
+        <v>7.026372893020208</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2557187041426017</v>
+        <v>9.564208399413266</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1143734614200514</v>
+        <v>0.08428101925254518</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +740,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.462709109404042</v>
+        <v>24.01045987378895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3226896432369725</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1766821746848415</v>
+        <v>25.34637823507207</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -745,13 +763,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.461948285288994</v>
+        <v>24.01611719549182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3226590155135246</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1765924065763057</v>
+        <v>25.35187658747083</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -766,13 +786,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.461297840658524</v>
+        <v>24.00703446224158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3226326690459624</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1765102047411505</v>
+        <v>25.34305356938048</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -787,13 +809,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.462765025498872</v>
+        <v>24.0178540661379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3226918829793908</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1766883981441371</v>
+        <v>25.35356450880131</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,15 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.56006704384687</v>
+        <v>9.375877104775327</v>
       </c>
       <c r="D2" t="n">
-        <v>13.39731576690363</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3141692451422786</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1634404695321765</v>
       </c>
     </row>
     <row r="3">
@@ -495,15 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.55994613426183</v>
+        <v>9.402576036328842</v>
       </c>
       <c r="D3" t="n">
-        <v>13.39699440623981</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3150972807103417</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.163042112809709</v>
       </c>
     </row>
     <row r="4">
@@ -518,15 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.56014039406742</v>
+        <v>9.381680463929987</v>
       </c>
       <c r="D4" t="n">
-        <v>13.39751118506531</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3143710078047751</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1633520146753306</v>
       </c>
     </row>
     <row r="5">
@@ -541,15 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.55990895074597</v>
+        <v>9.439698651979157</v>
       </c>
       <c r="D5" t="n">
-        <v>13.39689576795776</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3163866950586017</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1625199256344521</v>
       </c>
     </row>
     <row r="6">
@@ -564,15 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56.9923809631351</v>
+        <v>11.85083954572423</v>
       </c>
       <c r="D6" t="n">
-        <v>54.97155915957649</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.4121297818617989</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1812749448631462</v>
       </c>
     </row>
     <row r="7">
@@ -587,15 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57.00840450450648</v>
+        <v>11.88725454904469</v>
       </c>
       <c r="D7" t="n">
-        <v>54.98643106824083</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.4134060076165078</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1810801449848547</v>
       </c>
     </row>
     <row r="8">
@@ -610,15 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>56.98263887960336</v>
+        <v>11.85885283054911</v>
       </c>
       <c r="D8" t="n">
-        <v>54.96251561013514</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.4124107285355678</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1812313573603844</v>
       </c>
     </row>
     <row r="9">
@@ -633,15 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.01332348826426</v>
+        <v>11.93717028752726</v>
       </c>
       <c r="D9" t="n">
-        <v>54.99099584447677</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.4151535106201967</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1808308984367521</v>
       </c>
     </row>
     <row r="10">
@@ -656,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.017840517128329</v>
+        <v>7.665898727525551</v>
       </c>
       <c r="D10" t="n">
-        <v>9.552879209036151</v>
+        <v>0.2679233143272483</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08421861550363997</v>
+        <v>0.104296526174775</v>
       </c>
     </row>
     <row r="11">
@@ -677,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.024367678827875</v>
+        <v>7.698028264259358</v>
       </c>
       <c r="D11" t="n">
-        <v>9.561546201223651</v>
+        <v>0.2690530528430066</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08426624993498895</v>
+        <v>0.1042135074566991</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.013973915950065</v>
+        <v>7.672754529584831</v>
       </c>
       <c r="D12" t="n">
-        <v>9.547743618391078</v>
+        <v>0.2681644630328243</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08419001140559049</v>
+        <v>0.1042770271600451</v>
       </c>
     </row>
     <row r="13">
@@ -719,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.026372893020208</v>
+        <v>7.745177501963379</v>
       </c>
       <c r="D13" t="n">
-        <v>9.564208399413266</v>
+        <v>0.2707090794650558</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08428101925254518</v>
+        <v>0.1041242913305783</v>
       </c>
     </row>
     <row r="14">
@@ -740,15 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.01045987378895</v>
+        <v>9.882365164806279</v>
       </c>
       <c r="D14" t="n">
-        <v>25.34637823507207</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3372087977907659</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1623370503663389</v>
       </c>
     </row>
     <row r="15">
@@ -763,15 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.01611719549182</v>
+        <v>9.912747660479933</v>
       </c>
       <c r="D15" t="n">
-        <v>25.35187658747083</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3382698290819955</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.162039830481981</v>
       </c>
     </row>
     <row r="16">
@@ -786,15 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.00703446224158</v>
+        <v>9.88898084078172</v>
       </c>
       <c r="D16" t="n">
-        <v>25.34305356938048</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3374399005885828</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1622708387984246</v>
       </c>
     </row>
     <row r="17">
@@ -809,15 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.0178540661379</v>
+        <v>9.955121921850015</v>
       </c>
       <c r="D17" t="n">
-        <v>25.35356450880131</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.3397483501220266</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1616541589627776</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.375877104775327</v>
+        <v>16.45136178909645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3141692451422786</v>
+        <v>0.5439506985620727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1634404695321765</v>
+        <v>0.3351178259257516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.402576036328842</v>
+        <v>16.45129447142362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3150972807103417</v>
+        <v>0.5439503246054959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.163042112809709</v>
+        <v>0.3351519073059933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.381680463929987</v>
+        <v>16.45268728450561</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3143710078047751</v>
+        <v>0.5439632310886262</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1633520146753306</v>
+        <v>0.3345296845964306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.439698651979157</v>
+        <v>16.44923424882994</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3163866950586017</v>
+        <v>0.5439647894597179</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1625199256344521</v>
+        <v>0.336609148449274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.85083954572423</v>
+        <v>14.28474842501463</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4121297818617989</v>
+        <v>0.4865473742514072</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1812749448631462</v>
+        <v>0.3627619942498329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11.88725454904469</v>
+        <v>14.28395055883603</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4134060076165078</v>
+        <v>0.4865192858941976</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1810801449848547</v>
+        <v>0.3627905250093794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.85885283054911</v>
+        <v>14.29869685260499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4124107285355678</v>
+        <v>0.487038553078546</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1812313573603844</v>
+        <v>0.3622698144769078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11.93717028752726</v>
+        <v>14.25105350635858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4151535106201967</v>
+        <v>0.485362313411434</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1808308984367521</v>
+        <v>0.3640114617489574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.665898727525551</v>
+        <v>17.69705886590365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2679233143272483</v>
+        <v>0.5732244711431541</v>
       </c>
       <c r="E10" t="n">
-        <v>0.104296526174775</v>
+        <v>0.3622545238553445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.698028264259358</v>
+        <v>17.69778688359559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2690530528430066</v>
+        <v>0.5732539997652896</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1042135074566991</v>
+        <v>0.3622939089948855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.672754529584831</v>
+        <v>17.68453675494135</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2681644630328243</v>
+        <v>0.5727166770868188</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1042770271600451</v>
+        <v>0.3615745453702571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.745177501963379</v>
+        <v>17.72968936805027</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2707090794650558</v>
+        <v>0.5745467400968779</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1041242913305783</v>
+        <v>0.3639761144648893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.882365164806279</v>
+        <v>15.97572022274728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3372087977907659</v>
+        <v>0.5308265853466991</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1623370503663389</v>
+        <v>0.3474786569293961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.912747660479933</v>
+        <v>15.97554506716525</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3382698290819955</v>
+        <v>0.5308220826617497</v>
       </c>
       <c r="E15" t="n">
-        <v>0.162039830481981</v>
+        <v>0.347511747570523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.88898084078172</v>
+        <v>15.97889428430457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3374399005885828</v>
+        <v>0.5309098793442235</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1622708387984246</v>
+        <v>0.3469076298376237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.955121921850015</v>
+        <v>15.96898771557321</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3397483501220266</v>
+        <v>0.5306640423034074</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1616541589627776</v>
+        <v>0.3489267290246796</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.45136178909645</v>
+        <v>16.47142481629881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5439506985620727</v>
+        <v>0.5443982383729097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3351178259257516</v>
+        <v>0.3303793142108877</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.45129447142362</v>
+        <v>16.46558674256855</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5439503246054959</v>
+        <v>0.5442433804030619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3351519073059933</v>
+        <v>0.3313573183032106</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.45268728450561</v>
+        <v>16.47248556581222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5439632310886262</v>
+        <v>0.5444273514391401</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3345296845964306</v>
+        <v>0.3302177766710878</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.44923424882994</v>
+        <v>16.47156755396108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5439647894597179</v>
+        <v>0.5444021347623138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.336609148449274</v>
+        <v>0.3303572264521896</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.28474842501463</v>
+        <v>14.40583256179497</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4865473742514072</v>
+        <v>0.490815103008694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3627619942498329</v>
+        <v>0.3588062240937839</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.28395055883603</v>
+        <v>14.37917566046049</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4865192858941976</v>
+        <v>0.4898750210456891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3627905250093794</v>
+        <v>0.3596208510181106</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.29869685260499</v>
+        <v>14.41034918992711</v>
       </c>
       <c r="D8" t="n">
-        <v>0.487038553078546</v>
+        <v>0.4909744388208612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3622698144769078</v>
+        <v>0.3586717651341934</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.25105350635858</v>
+        <v>14.40644684002845</v>
       </c>
       <c r="D9" t="n">
-        <v>0.485362313411434</v>
+        <v>0.490836770527259</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3640114617489574</v>
+        <v>0.3587878373399991</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.69705886590365</v>
+        <v>17.60248225815157</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5732244711431541</v>
+        <v>0.5693791810707126</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3622545238553445</v>
+        <v>0.35675874472705</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.69778688359559</v>
+        <v>17.62072465444222</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5732539997652896</v>
+        <v>0.5701233833311433</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3622939089948855</v>
+        <v>0.3578963785889973</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.68453675494135</v>
+        <v>17.59955265793208</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5727166770868188</v>
+        <v>0.5692594424588701</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3615745453702571</v>
+        <v>0.3565706671041526</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.72968936805027</v>
+        <v>17.60207941374795</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5745467400968779</v>
+        <v>0.5693627235795156</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3639761144648893</v>
+        <v>0.3567330309584654</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.97572022274728</v>
+        <v>16.01004286349309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5308265853466991</v>
+        <v>0.5318192924665079</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3474786569293961</v>
+        <v>0.3428789346011108</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.97554506716525</v>
+        <v>16.00132982207911</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5308220826617497</v>
+        <v>0.5315547137006806</v>
       </c>
       <c r="E15" t="n">
-        <v>0.347511747570523</v>
+        <v>0.3438281260902333</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15.97889428430457</v>
+        <v>16.01158182474054</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5309098793442235</v>
+        <v>0.5318666367739824</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3469076298376237</v>
+        <v>0.3427221642656268</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.96898771557321</v>
+        <v>16.010250695093</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5306640423034074</v>
+        <v>0.5318256711499929</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3489267290246796</v>
+        <v>0.3428574985470735</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.72420233599431</v>
+        <v>16.48972276504929</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5562762138348329</v>
+        <v>0.5449268735954337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3648377201086608</v>
+        <v>0.328035949820292</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.72158006510781</v>
+        <v>16.49642876204019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5561658283653815</v>
+        <v>0.5451280245222562</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3647002311424573</v>
+        <v>0.3273038336744392</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.72704974507535</v>
+        <v>16.49079297597499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5563960642205712</v>
+        <v>0.5449588070086349</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3649864823734425</v>
+        <v>0.3279161677799501</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.71938115286968</v>
+        <v>16.49019619595843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5560732641258485</v>
+        <v>0.5449409886945572</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3645846951263029</v>
+        <v>0.3279827663701768</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.02497943278552</v>
+        <v>14.47438696948038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4781919194986686</v>
+        <v>0.4932343944728613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3880133328651225</v>
+        <v>0.3568583186990444</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.02432495904704</v>
+        <v>14.49694809355246</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4781600557648911</v>
+        <v>0.494030549167022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3878949883516477</v>
+        <v>0.3562509325179065</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.02570275657444</v>
+        <v>14.47804920554823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.478226989796798</v>
+        <v>0.4933636452799313</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3881413952667379</v>
+        <v>0.3567589048749065</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.02378884611428</v>
+        <v>14.47601259064005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4781338193807989</v>
+        <v>0.4932917692213655</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3877955498279046</v>
+        <v>0.3568141769012458</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.58301338106637</v>
+        <v>17.56256421650029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6090941932606687</v>
+        <v>0.5677398544790498</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3959961504728111</v>
+        <v>0.3540253990731034</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.57794571515333</v>
+        <v>17.55084859392343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6088877538734682</v>
+        <v>0.5672566685635753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3958423259585466</v>
+        <v>0.3531691963066251</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.58851610818297</v>
+        <v>17.56061905912499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6093183536700604</v>
+        <v>0.5676597217321881</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3961625682394892</v>
+        <v>0.3538853900001603</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.57368448217466</v>
+        <v>17.56169970475654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6087142012822011</v>
+        <v>0.5677042419551782</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3957130493061255</v>
+        <v>0.353963238375793</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.17459890552936</v>
+        <v>16.03526892434067</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5402434189601816</v>
+        <v>0.5326116629665184</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3763775789131123</v>
+        <v>0.3406049507716036</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.17222467457021</v>
+        <v>16.0441528787717</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5401431446940288</v>
+        <v>0.5328955245731002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3762436874609895</v>
+        <v>0.3398946079795159</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16.17718077293483</v>
+        <v>16.03669466418601</v>
       </c>
       <c r="D16" t="n">
-        <v>0.540352436311304</v>
+        <v>0.5326571050687354</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3765224507688797</v>
+        <v>0.3404887279540258</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.17023592459505</v>
+        <v>16.0359007327649</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5400591423258146</v>
+        <v>0.5326317953078282</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3761311759701878</v>
+        <v>0.3405533474712693</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.48972276504929</v>
+        <v>16.45643246764799</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5449268735954337</v>
+        <v>0.5445375797447748</v>
       </c>
       <c r="E2" t="n">
-        <v>0.328035949820292</v>
+        <v>0.3414438396275378</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.49642876204019</v>
+        <v>16.45646892224991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5451280245222562</v>
+        <v>0.5445396121343787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3273038336744392</v>
+        <v>0.3414544063070759</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.49079297597499</v>
+        <v>16.45702924668762</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5449588070086349</v>
+        <v>0.5445706378463526</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3279161677799501</v>
+        <v>0.3416133814384243</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.49019619595843</v>
+        <v>16.45538493690191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5449409886945572</v>
+        <v>0.5444786906473208</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3279827663701768</v>
+        <v>0.3411321982419993</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.47438696948038</v>
+        <v>14.1574264067658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4932343944728613</v>
+        <v>0.4820869584738449</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3568583186990444</v>
+        <v>0.3680761426877912</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.49694809355246</v>
+        <v>14.15724494851104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.494030549167022</v>
+        <v>0.4820806440323824</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3562509325179065</v>
+        <v>0.3680850493146212</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.47804920554823</v>
+        <v>14.15453003072576</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4933636452799313</v>
+        <v>0.4819861988457115</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3567589048749065</v>
+        <v>0.368219060826714</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.47601259064005</v>
+        <v>14.16281560954729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4932917692213655</v>
+        <v>0.4822745555273045</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3568141769012458</v>
+        <v>0.3678135049671445</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.56256421650029</v>
+        <v>17.84819978055185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5677398544790498</v>
+        <v>0.5793281142875898</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3540253990731034</v>
+        <v>0.3695330348538499</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.55084859392343</v>
+        <v>17.84846966754114</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5672566685635753</v>
+        <v>0.5793390084518203</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3531691963066251</v>
+        <v>0.3695451413606988</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.56061905912499</v>
+        <v>17.85252917959967</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5676597217321881</v>
+        <v>0.5795028974608504</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3538853900001603</v>
+        <v>0.3697272635205527</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.56169970475654</v>
+        <v>17.84023082581671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5677042419551782</v>
+        <v>0.5790065502177634</v>
       </c>
       <c r="E13" t="n">
-        <v>0.353963238375793</v>
+        <v>0.369175906335997</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.03526892434067</v>
+        <v>15.9615192360817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5326116629665184</v>
+        <v>0.5306714837062088</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3406049507716036</v>
+        <v>0.3536226643188078</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.0441528787717</v>
+        <v>15.96152299132046</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5328955245731002</v>
+        <v>0.5306722524639352</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3398946079795159</v>
+        <v>0.3536329302031415</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16.03669466418601</v>
+        <v>15.9615905386133</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5326571050687354</v>
+        <v>0.5306842342969857</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3404887279540258</v>
+        <v>0.3537873811969431</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.0359007327649</v>
+        <v>15.96143390457711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5326317953078282</v>
+        <v>0.5306497727840843</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3405533474712693</v>
+        <v>0.3533198991162528</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.45643246764799</v>
+        <v>16.45545690063862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5445375797447748</v>
+        <v>0.5444827668469049</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3414438396275378</v>
+        <v>0.3411541101599669</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.45646892224991</v>
+        <v>16.45578313707478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5445396121343787</v>
+        <v>0.5445011663852397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3414544063070759</v>
+        <v>0.3412521577612451</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.45702924668762</v>
+        <v>16.45480654594495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5445706378463526</v>
+        <v>0.5444455419602902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3416133814384243</v>
+        <v>0.3409498747711932</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.45538493690191</v>
+        <v>16.45377338075896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5444786906473208</v>
+        <v>0.5443848432434659</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3411321982419993</v>
+        <v>0.3406002169493189</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.1574264067658</v>
+        <v>14.16243393177358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4820869584738449</v>
+        <v>0.4822612645872333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3680761426877912</v>
+        <v>0.3678319685874337</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.15724494851104</v>
+        <v>14.16072840068155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4820806440323824</v>
+        <v>0.4822018759115037</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3680850493146212</v>
+        <v>0.367914591516281</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.15453003072576</v>
+        <v>14.16599771259754</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4819861988457115</v>
+        <v>0.4823853676029319</v>
       </c>
       <c r="E8" t="n">
-        <v>0.368219060826714</v>
+        <v>0.3676598902710841</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.16281560954729</v>
+        <v>14.17218087207283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4822745555273045</v>
+        <v>0.4826008238015983</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3678135049671445</v>
+        <v>0.3673653717739667</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.84819978055185</v>
+        <v>17.84079171786189</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5793281142875898</v>
+        <v>0.5790291765588573</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3695330348538499</v>
+        <v>0.3692010211561609</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.84846966754114</v>
+        <v>17.84330041498947</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5793390084518203</v>
+        <v>0.5791303898624338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3695451413606988</v>
+        <v>0.3693133919294655</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.85252917959967</v>
+        <v>17.83556034656269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5795028974608504</v>
+        <v>0.5788181836003436</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3697272635205527</v>
+        <v>0.3689669050069479</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.84023082581671</v>
+        <v>17.82661245769377</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5790065502177634</v>
+        <v>0.5784574231467731</v>
       </c>
       <c r="E13" t="n">
-        <v>0.369175906335997</v>
+        <v>0.3685659476178204</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.9615192360817</v>
+        <v>15.96143821323565</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5306714837062088</v>
+        <v>0.5306512353804241</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3536226643188078</v>
+        <v>0.3533411866297655</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.96152299132046</v>
+        <v>15.96146040756362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5306722524639352</v>
+        <v>0.5306578902277878</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3536329302031415</v>
+        <v>0.3534364408266823</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15.9615905386133</v>
+        <v>15.96141087399015</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5306842342969857</v>
+        <v>0.5306380858106736</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3537873811969431</v>
+        <v>0.3531427729623514</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.96143390457711</v>
+        <v>15.96143474576056</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5306497727840843</v>
+        <v>0.5306182325995278</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3533198991162528</v>
+        <v>0.3528030915131907</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.45545690063862</v>
+        <v>16.70030655429752</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5444827668469049</v>
+        <v>0.5552700527325194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3411541101599669</v>
+        <v>0.3635694008307522</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.45578313707478</v>
+        <v>16.69423734192853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5445011663852397</v>
+        <v>0.5550142991885427</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3412521577612451</v>
+        <v>0.3632400851774093</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.45480654594495</v>
+        <v>16.7078539399306</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5444455419602902</v>
+        <v>0.5555879855114637</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3409498747711932</v>
+        <v>0.3639748902623481</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.45377338075896</v>
+        <v>16.73168334996058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5443848432434659</v>
+        <v>0.5565910528581385</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3406002169493189</v>
+        <v>0.3652271425805025</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.16243393177358</v>
+        <v>14.01954230504137</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4822612645872333</v>
+        <v>0.4779213728255275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3678319685874337</v>
+        <v>0.386922103622487</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.16072840068155</v>
+        <v>14.01840151000681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4822018759115037</v>
+        <v>0.4778616445949374</v>
       </c>
       <c r="E7" t="n">
-        <v>0.367914591516281</v>
+        <v>0.3866389476141927</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.16599771259754</v>
+        <v>14.02111730741898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4823853676029319</v>
+        <v>0.478001518385116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3676598902710841</v>
+        <v>0.3872708577489642</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.17218087207283</v>
+        <v>14.02693583531873</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4826008238015983</v>
+        <v>0.478286167265504</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3673653717739667</v>
+        <v>0.3883485997311568</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.84079171786189</v>
+        <v>18.53619052558044</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5790291765588573</v>
+        <v>0.6071883977018373</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3692010211561609</v>
+        <v>0.3945764765335829</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.84330041498947</v>
+        <v>18.52406873026248</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5791303898624338</v>
+        <v>0.606695459173788</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3693133919294655</v>
+        <v>0.3942076173970733</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.83556034656269</v>
+        <v>18.55115206028011</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5788181836003436</v>
+        <v>0.6077970333892474</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3689669050069479</v>
+        <v>0.3950305169590634</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.82661245769377</v>
+        <v>18.59744413441046</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5784574231467731</v>
+        <v>0.6096820829354934</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3685659476178204</v>
+        <v>0.3964317479317847</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.96143821323565</v>
+        <v>16.15303145574812</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5306512353804241</v>
+        <v>0.5393320142630913</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3533411866297655</v>
+        <v>0.3751425164166047</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.96146040756362</v>
+        <v>16.14759354710892</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5306578902277878</v>
+        <v>0.5391018679732262</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3534364408266823</v>
+        <v>0.37482186155457</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15.96141087399015</v>
+        <v>16.15982493708297</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5306380858106736</v>
+        <v>0.5396193025278427</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3531427729623514</v>
+        <v>0.3755373563317883</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.96143474576056</v>
+        <v>16.18139534172997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5306182325995278</v>
+        <v>0.5405303014153392</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3528030915131907</v>
+        <v>0.3767568218420441</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_transformer.xlsx
+++ b/Modelos em Python/resultados_erros_transformer.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.70030655429752</v>
+        <v>16.4701089157334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5552700527325194</v>
+        <v>0.544362553779174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3635694008307522</v>
+        <v>0.3305868618788721</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.69423734192853</v>
+        <v>16.47002212477631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5550142991885427</v>
+        <v>0.544360219600052</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3632400851774093</v>
+        <v>0.3306008722998672</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.7078539399306</v>
+        <v>16.47091292661739</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5555879855114637</v>
+        <v>0.5443843012372669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3639748902623481</v>
+        <v>0.3304591273824778</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.73168334996058</v>
+        <v>16.46734797036697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5565910528581385</v>
+        <v>0.5442890598671416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3652271425805025</v>
+        <v>0.33104513650123</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.01954230504137</v>
+        <v>14.4000739691263</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4779213728255275</v>
+        <v>0.4906119695629528</v>
       </c>
       <c r="E6" t="n">
-        <v>0.386922103622487</v>
+        <v>0.3589790195391989</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.01840151000681</v>
+        <v>14.39968741705429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4778616445949374</v>
+        <v>0.4905983352130507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3866389476141927</v>
+        <v>0.3589906856047903</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.02111730741898</v>
+        <v>14.40361426508238</v>
       </c>
       <c r="D8" t="n">
-        <v>0.478001518385116</v>
+        <v>0.4907368537317058</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3872708577489642</v>
+        <v>0.3588726679878595</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.02693583531873</v>
+        <v>14.38757632046699</v>
       </c>
       <c r="D9" t="n">
-        <v>0.478286167265504</v>
+        <v>0.4901712444519303</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3883485997311568</v>
+        <v>0.3593607145795645</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.53619052558044</v>
+        <v>17.6062905258708</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6071883977018373</v>
+        <v>0.5695346956878986</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3945764765335829</v>
+        <v>0.3570003189236509</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.52406873026248</v>
+        <v>17.60654903250192</v>
       </c>
       <c r="D11" t="n">
-        <v>0.606695459173788</v>
+        <v>0.5695452481155924</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3942076173970733</v>
+        <v>0.3570166233487631</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.55115206028011</v>
+        <v>17.60393765019309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6077970333892474</v>
+        <v>0.5694386447831848</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3950305169590634</v>
+        <v>0.3568516525948062</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.59744413441046</v>
+        <v>17.61479806435992</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6096820829354934</v>
+        <v>0.5698818958296467</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3964317479317847</v>
+        <v>0.3575334374907904</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.15303145574812</v>
+        <v>16.00811141404144</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5393320142630913</v>
+        <v>0.5317601364111467</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3751425164166047</v>
+        <v>0.3430803606445271</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.14759354710892</v>
+        <v>16.00798302799262</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5391018679732262</v>
+        <v>0.5317562159889434</v>
       </c>
       <c r="E15" t="n">
-        <v>0.37482186155457</v>
+        <v>0.3430939579659392</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16.15982493708297</v>
+        <v>16.00929442320692</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5396193025278427</v>
+        <v>0.5317963360039261</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3755373563317883</v>
+        <v>0.3429563932272644</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.18139534172997</v>
+        <v>16.00400677170474</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5405303014153392</v>
+        <v>0.5316353600028715</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3767568218420441</v>
+        <v>0.343525132054142</v>
       </c>
     </row>
   </sheetData>
